--- a/Data_Governance_Excel.xlsx
+++ b/Data_Governance_Excel.xlsx
@@ -4,20 +4,25 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="40" windowWidth="14340" windowHeight="5840" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="80" yWindow="40" windowWidth="14340" windowHeight="5840" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Master_Data_Schema" sheetId="1" r:id="rId1"/>
     <sheet name="Source_to_Master_mapping" sheetId="2" r:id="rId2"/>
     <sheet name="Data Quality Metrics" sheetId="3" r:id="rId3"/>
     <sheet name="Change_Log" sheetId="4" r:id="rId4"/>
+    <sheet name="Master_data_schema(foundational" sheetId="5" r:id="rId5"/>
+    <sheet name="Report_Ananlytics_Schema" sheetId="6" r:id="rId6"/>
+    <sheet name="Lineage_schema" sheetId="7" r:id="rId7"/>
+    <sheet name="DQ_RULE_SCHEMA" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet1" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="163">
   <si>
     <t>Entity_Name</t>
   </si>
@@ -296,16 +301,233 @@
   </si>
   <si>
     <t>Compliance Head</t>
+  </si>
+  <si>
+    <t>Canonical attribute</t>
+  </si>
+  <si>
+    <t>Data_Type</t>
+  </si>
+  <si>
+    <t>Governance rule</t>
+  </si>
+  <si>
+    <t>Data_Steward</t>
+  </si>
+  <si>
+    <t>Privacy_Class</t>
+  </si>
+  <si>
+    <t>Regulatory_Tag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Business_Definition </t>
+  </si>
+  <si>
+    <t>Length_format</t>
+  </si>
+  <si>
+    <t>Business object(Customer,product,Account</t>
+  </si>
+  <si>
+    <t>Canonical Attribute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Business meaning </t>
+  </si>
+  <si>
+    <t>String/Integer/Date</t>
+  </si>
+  <si>
+    <t>VARCHAR(100),YYY-MM-DD</t>
+  </si>
+  <si>
+    <t>Controlled Values</t>
+  </si>
+  <si>
+    <t>Pk Identification</t>
+  </si>
+  <si>
+    <t>Business Owner</t>
+  </si>
+  <si>
+    <t>Governance Steward</t>
+  </si>
+  <si>
+    <t>PII/Sensitive/Public</t>
+  </si>
+  <si>
+    <t>GDPR/DPDP/NONE</t>
+  </si>
+  <si>
+    <t>Domain Allowed Values</t>
+  </si>
+  <si>
+    <t>Primary_Key_Y_n</t>
+  </si>
+  <si>
+    <t>Report_Name</t>
+  </si>
+  <si>
+    <t>Metric_Name</t>
+  </si>
+  <si>
+    <t>Metric_definition</t>
+  </si>
+  <si>
+    <t>Calculation_Logic</t>
+  </si>
+  <si>
+    <t>Grain</t>
+  </si>
+  <si>
+    <t>Master_entity</t>
+  </si>
+  <si>
+    <t>Master_attribute</t>
+  </si>
+  <si>
+    <t>Soucre_system</t>
+  </si>
+  <si>
+    <t>Certification_satatus</t>
+  </si>
+  <si>
+    <t>Data_quality_checks</t>
+  </si>
+  <si>
+    <t>Dashboard/report name</t>
+  </si>
+  <si>
+    <t>Business Metric</t>
+  </si>
+  <si>
+    <t>What the metrics means</t>
+  </si>
+  <si>
+    <t>Formula/Logic</t>
+  </si>
+  <si>
+    <t>Row_level/Aggregated</t>
+  </si>
+  <si>
+    <t>Customer/Product</t>
+  </si>
+  <si>
+    <t>CRM/ERP</t>
+  </si>
+  <si>
+    <t>Draft/Certified</t>
+  </si>
+  <si>
+    <t>Completeness/Validity</t>
+  </si>
+  <si>
+    <t>Customer_Dashboard</t>
+  </si>
+  <si>
+    <t>Active_Customers</t>
+  </si>
+  <si>
+    <t>Count(Customer_Id) where status='active'</t>
+  </si>
+  <si>
+    <t>count of customers  with active status</t>
+  </si>
+  <si>
+    <t>Aggregated</t>
+  </si>
+  <si>
+    <t>Draft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metric </t>
+  </si>
+  <si>
+    <t>Values to be filled</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>Canonical_Entity</t>
+  </si>
+  <si>
+    <t>Canonical_Attribute</t>
+  </si>
+  <si>
+    <t>Target_Report</t>
+  </si>
+  <si>
+    <t>Target_Metric</t>
+  </si>
+  <si>
+    <t>Lineage_Status</t>
+  </si>
+  <si>
+    <t>Raw_Table</t>
+  </si>
+  <si>
+    <t>Raw_Column</t>
+  </si>
+  <si>
+    <t>TRIM,CAST,JOIN</t>
+  </si>
+  <si>
+    <t>Dashboard</t>
+  </si>
+  <si>
+    <t>Metric Name</t>
+  </si>
+  <si>
+    <t>Active/Depreceated</t>
+  </si>
+  <si>
+    <t>Coulmn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description </t>
+  </si>
+  <si>
+    <t>Rule_Description</t>
+  </si>
+  <si>
+    <t>Must Not be Null</t>
+  </si>
+  <si>
+    <t>Threshold</t>
+  </si>
+  <si>
+    <t>&gt;=99%</t>
+  </si>
+  <si>
+    <t>Severity</t>
+  </si>
+  <si>
+    <t>High/Medium</t>
+  </si>
+  <si>
+    <t>Regulatory_Impact</t>
+  </si>
+  <si>
+    <t>Yes/NO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -320,20 +542,42 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -341,11 +585,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -353,10 +615,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -365,11 +627,23 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="Accent1" xfId="2" builtinId="29"/>
+    <cellStyle name="Accent2" xfId="3" builtinId="33"/>
+    <cellStyle name="Input" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="41">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -404,11 +678,76 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -430,19 +769,41 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -467,7 +828,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J7" insertRowShift="1" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J7" insertRowShift="1" totalsRowShown="0" headerRowCellStyle="Bad" dataCellStyle="Bad">
   <autoFilter ref="A1:J7"/>
   <tableColumns count="10">
     <tableColumn id="1" name="Entity_Name"/>
@@ -481,12 +842,41 @@
     <tableColumn id="9" name="Data_steward"/>
     <tableColumn id="10" name="Privacy_class"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table12" displayName="Table12" ref="A1:I2" totalsRowShown="0">
+  <autoFilter ref="A1:I2"/>
+  <tableColumns count="9">
+    <tableColumn id="1" name="Source_System"/>
+    <tableColumn id="2" name="Source_Table"/>
+    <tableColumn id="3" name="Source_Field"/>
+    <tableColumn id="4" name="Transformation_Rule"/>
+    <tableColumn id="5" name="Canonical_Entity"/>
+    <tableColumn id="6" name="Canonical_Attribute"/>
+    <tableColumn id="7" name="Target_Report"/>
+    <tableColumn id="8" name="Target_Metric"/>
+    <tableColumn id="9" name="Lineage_Status"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table13" displayName="Table13" ref="A1:B7" totalsRowShown="0">
+  <autoFilter ref="A1:B7"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Coulmn"/>
+    <tableColumn id="2" name="Description "/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:I11" totalsRowShown="0" headerRowDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:I11" totalsRowShown="0" headerRowDxfId="40">
   <autoFilter ref="A1:I11">
     <filterColumn colId="8"/>
   </autoFilter>
@@ -506,14 +896,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:E4" totalsRowShown="0" headerRowDxfId="8" dataDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:E4" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
   <autoFilter ref="A1:E4"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Entity" dataDxfId="13"/>
-    <tableColumn id="2" name="Rule_Type" dataDxfId="12"/>
-    <tableColumn id="3" name="Total_Records" dataDxfId="11"/>
-    <tableColumn id="4" name="Failed_Records" dataDxfId="10"/>
-    <tableColumn id="5" name="Pass_Percentage" dataDxfId="7">
+    <tableColumn id="1" name="Entity" dataDxfId="37"/>
+    <tableColumn id="2" name="Rule_Type" dataDxfId="36"/>
+    <tableColumn id="3" name="Total_Records" dataDxfId="35"/>
+    <tableColumn id="4" name="Failed_Records" dataDxfId="34"/>
+    <tableColumn id="5" name="Pass_Percentage" dataDxfId="33">
       <calculatedColumnFormula>1-(Table3[[#This Row],[Failed_Records]]/Table3[[#This Row],[Total_Records]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -522,16 +912,73 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:E3" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:E3" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31">
   <autoFilter ref="A1:E3"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Change_Date" dataDxfId="6"/>
-    <tableColumn id="2" name="Version" dataDxfId="5"/>
-    <tableColumn id="3" name="Description" dataDxfId="4"/>
-    <tableColumn id="4" name="Impact" dataDxfId="3"/>
-    <tableColumn id="5" name="Approved_By" dataDxfId="2"/>
+    <tableColumn id="1" name="Change_Date" dataDxfId="30"/>
+    <tableColumn id="2" name="Version" dataDxfId="29"/>
+    <tableColumn id="3" name="Description" dataDxfId="28"/>
+    <tableColumn id="4" name="Impact" dataDxfId="27"/>
+    <tableColumn id="5" name="Approved_By" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="C1:M2" dataDxfId="25">
+  <autoFilter ref="C1:M2"/>
+  <tableColumns count="11">
+    <tableColumn id="1" name="Attribute_Name" totalsRowLabel="Total" dataDxfId="24" totalsRowDxfId="23"/>
+    <tableColumn id="2" name="Business_Definition " dataDxfId="22" totalsRowDxfId="21"/>
+    <tableColumn id="3" name="Data_Type" dataDxfId="20" totalsRowDxfId="19"/>
+    <tableColumn id="4" name="Length_format" dataDxfId="18" totalsRowDxfId="17"/>
+    <tableColumn id="5" name="Mandatory_Y_N" dataDxfId="16" totalsRowDxfId="15"/>
+    <tableColumn id="6" name="Domain Allowed Values" dataDxfId="14" totalsRowDxfId="13"/>
+    <tableColumn id="7" name="Primary_Key_Y_n" dataDxfId="12" totalsRowDxfId="11"/>
+    <tableColumn id="8" name="Data_owner" dataDxfId="10" totalsRowDxfId="9"/>
+    <tableColumn id="9" name="Data_Steward" dataDxfId="8" totalsRowDxfId="7"/>
+    <tableColumn id="10" name="Privacy_Class" dataDxfId="6" totalsRowDxfId="5"/>
+    <tableColumn id="11" name="Regulatory_Tag" totalsRowFunction="count" dataDxfId="4" totalsRowDxfId="3"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A1:A2" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
+  <autoFilter ref="A1:A2"/>
+  <tableColumns count="1">
+    <tableColumn id="1" name="Entity_Name" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table9" displayName="Table9" ref="B2:B11" headerRowCount="0" totalsRowShown="0" headerRowCellStyle="Accent1" dataCellStyle="Accent1">
+  <tableColumns count="1">
+    <tableColumn id="1" name="Column1" headerRowCellStyle="Accent1" dataCellStyle="Accent1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleDark5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table10" displayName="Table10" ref="C2:C11" headerRowCount="0" totalsRowShown="0" headerRowCellStyle="Accent2" dataCellStyle="Accent2">
+  <tableColumns count="1">
+    <tableColumn id="1" name="Column1" headerRowCellStyle="Accent2" dataCellStyle="Accent2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleDark5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table11" displayName="Table11" ref="A2:A11" headerRowCount="0" totalsRowShown="0">
+  <tableColumns count="1">
+    <tableColumn id="1" name="Column1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleDark5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -823,7 +1270,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1087,7 +1534,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1277,7 +1724,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1288,7 +1735,7 @@
     <col min="5" max="5" width="16.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="29">
+    <row r="1" spans="1:5">
       <c r="A1" s="6" t="s">
         <v>72</v>
       </c>
@@ -1371,8 +1818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1384,7 +1831,7 @@
     <col min="5" max="5" width="30.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="29">
+    <row r="1" spans="1:5">
       <c r="A1" s="6" t="s">
         <v>80</v>
       </c>
@@ -1401,7 +1848,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="58">
+    <row r="2" spans="1:5" ht="29">
       <c r="A2" s="8">
         <v>46032</v>
       </c>
@@ -1418,7 +1865,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="58">
+    <row r="3" spans="1:5" ht="29">
       <c r="A3" s="8">
         <v>46034</v>
       </c>
@@ -1441,4 +1888,494 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="24.6328125" customWidth="1"/>
+    <col min="2" max="2" width="9.6328125" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="19.6328125" customWidth="1"/>
+    <col min="5" max="5" width="17.1796875" customWidth="1"/>
+    <col min="6" max="6" width="15.08984375" customWidth="1"/>
+    <col min="7" max="7" width="12.7265625" customWidth="1"/>
+    <col min="8" max="8" width="16.36328125" customWidth="1"/>
+    <col min="9" max="9" width="23.1796875" customWidth="1"/>
+    <col min="10" max="10" width="17.36328125" customWidth="1"/>
+    <col min="11" max="11" width="13.36328125" customWidth="1"/>
+    <col min="12" max="12" width="13.81640625" customWidth="1"/>
+    <col min="13" max="13" width="15.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1" t="s">
+        <v>113</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>96</v>
+      </c>
+      <c r="L1" t="s">
+        <v>97</v>
+      </c>
+      <c r="M1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="43.5">
+      <c r="A2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="28.90625" customWidth="1"/>
+    <col min="3" max="3" width="29.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>119</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>122</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>123</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="3">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="15.36328125" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="13.36328125" customWidth="1"/>
+    <col min="4" max="4" width="20.453125" customWidth="1"/>
+    <col min="5" max="5" width="16.6328125" customWidth="1"/>
+    <col min="6" max="6" width="19.36328125" customWidth="1"/>
+    <col min="7" max="7" width="14.7265625" customWidth="1"/>
+    <col min="8" max="8" width="14.453125" customWidth="1"/>
+    <col min="9" max="9" width="15.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H2" t="s">
+        <v>151</v>
+      </c>
+      <c r="I2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>159</v>
+      </c>
+      <c r="B6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>161</v>
+      </c>
+      <c r="B7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>